--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowHeight="17260" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="基础知识" sheetId="1" r:id="rId1"/>
+    <sheet name="通用" sheetId="1" r:id="rId1"/>
+    <sheet name="Linux0.11" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>项目</t>
   </si>
@@ -25,10 +26,22 @@
     <t>进度</t>
   </si>
   <si>
-    <t>必备</t>
+    <t>基础知识</t>
   </si>
   <si>
     <t>Linux的主机名字和用户名.md</t>
+  </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>引导启动程序.md</t>
+  </si>
+  <si>
+    <t>系统调用.md</t>
+  </si>
+  <si>
+    <t>进程运行轨迹的跟踪与统计.md</t>
   </si>
 </sst>
 </file>
@@ -41,14 +54,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,154 +516,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -985,10 +997,10 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1009,88 +1021,191 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>45394</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="11.2857142857143"/>
+    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13660"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>项目</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>时间</t>
   </si>
@@ -26,10 +23,10 @@
     <t>进度</t>
   </si>
   <si>
-    <t>基础知识</t>
+    <t>Linux的主机名字和用户名.md</t>
   </si>
   <si>
-    <t>Linux的主机名字和用户名.md</t>
+    <t>Linux进程调度.md</t>
   </si>
   <si>
     <t>文件</t>
@@ -661,19 +658,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,111 +986,95 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="11.2857142857143"/>
-    <col min="3" max="3" width="29.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="11.2857142857143"/>
+    <col min="2" max="2" width="29.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
-        <v>45394</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,7 +1087,7 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -1126,10 +1101,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1137,7 +1112,7 @@
         <v>45395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1145,7 +1120,7 @@
         <v>45395</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1153,7 +1128,7 @@
         <v>45395</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>时间</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>进程运行轨迹的跟踪与统计.md</t>
+  </si>
+  <si>
+    <t>基于内核栈切换的进程切换.md</t>
   </si>
 </sst>
 </file>
@@ -988,10 +991,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1087,10 +1090,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1132,8 +1135,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>Linux进程调度.md</t>
+  </si>
+  <si>
+    <t>100个GDB小技巧.md</t>
   </si>
   <si>
     <t>文件</t>
@@ -991,10 +994,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1028,8 +1031,12 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3"/>
@@ -1090,10 +1097,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1107,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1115,7 +1122,7 @@
         <v>45395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1123,7 +1130,7 @@
         <v>45395</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1131,7 +1138,7 @@
         <v>45395</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1139,7 +1146,7 @@
         <v>45396</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11920"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>时间</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>基于内核栈切换的进程切换.md</t>
+  </si>
+  <si>
+    <t>自己实现信号量.md</t>
   </si>
 </sst>
 </file>
@@ -994,7 +997,7 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
@@ -1097,10 +1100,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1150,8 +1153,12 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>时间</t>
   </si>
@@ -49,6 +49,9 @@
   <si>
     <t>自己实现信号量.md</t>
   </si>
+  <si>
+    <t>Linux内核完全注释.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -60,10 +63,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,143 +547,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1119,7 @@
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1161,8 +1177,12 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4">
+        <v>45398</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11960" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>时间</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Linux内核完全注释.pdf</t>
+  </si>
+  <si>
+    <t>虚拟地址翻译成物理地址.md</t>
+  </si>
+  <si>
+    <t>实现共享内存.md</t>
+  </si>
+  <si>
+    <t>分析fork的内存管理.md</t>
+  </si>
+  <si>
+    <t>Linux0.11的内存管理.md</t>
+  </si>
+  <si>
+    <t>Linux0.11的内存管理2.md</t>
   </si>
 </sst>
 </file>
@@ -238,6 +253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,12 +416,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +568,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +592,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -595,78 +610,78 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -690,6 +705,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1140,7 @@
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1185,24 +1206,44 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="6">
+        <v>45399</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>时间</t>
   </si>
@@ -35,12 +35,51 @@
     <t>文件</t>
   </si>
   <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>操作系统的引导.md</t>
+  </si>
+  <si>
+    <t>Boot</t>
+  </si>
+  <si>
     <t>引导启动程序.md</t>
   </si>
   <si>
+    <t>Linux内核完全注释-引导启动程序.md</t>
+  </si>
+  <si>
+    <t>Linux内核完全注释-初始化程序.md</t>
+  </si>
+  <si>
     <t>系统调用.md</t>
   </si>
   <si>
+    <t>SystemCall</t>
+  </si>
+  <si>
+    <t>自己实现系统调用.md</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SystemCall</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux内核完全注释-内核代码.md</t>
+  </si>
+  <si>
+    <t>Linux内核完全注释-内核代码2.md</t>
+  </si>
+  <si>
     <t>进程运行轨迹的跟踪与统计.md</t>
   </si>
   <si>
@@ -50,10 +89,34 @@
     <t>自己实现信号量.md</t>
   </si>
   <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>解决生产者-消费者问题.md</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Signal</t>
+    </r>
+  </si>
+  <si>
+    <t>Linux信号量函数.md</t>
+  </si>
+  <si>
     <t>Linux内核完全注释.pdf</t>
   </si>
   <si>
     <t>虚拟地址翻译成物理地址.md</t>
+  </si>
+  <si>
+    <t>MemoryManagement</t>
   </si>
   <si>
     <t>实现共享内存.md</t>
@@ -78,10 +141,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -238,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -253,169 +323,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,55 +644,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,61 +704,58 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,29 +764,45 @@
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1055,76 +1147,76 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>45394</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>45395</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>45396</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,131 +1227,249 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.2857142857143"/>
-    <col min="2" max="2" width="31.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="37.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
         <v>45395</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
         <v>45395</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:3">
+      <c r="A7" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:3">
+      <c r="A8" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:3">
+      <c r="A9" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>45395</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>45396</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>45397</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:3">
+      <c r="A13" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
+      <c r="A14" s="5">
+        <v>45399</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="9">
         <v>45398</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6">
+      <c r="B15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>45399</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>45399</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="6">
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>45399</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12">
         <v>45399</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="6">
+      <c r="B19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12">
         <v>45399</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="B20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>时间</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Linux0.11的内存管理2.md</t>
+  </si>
+  <si>
+    <t>终端设备的控制.md</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>分析键盘中断过程.md</t>
+  </si>
+  <si>
+    <t>ASCII码表.md</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,7 +656,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,16 +680,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -692,89 +698,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -798,7 +804,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1230,9 +1235,9 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1407,7 +1412,7 @@
       <c r="B16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1418,7 +1423,7 @@
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1429,15 +1434,15 @@
       <c r="B18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>45399</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
@@ -1445,27 +1450,48 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>45399</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11">
+        <v>45400</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11">
+        <v>45400</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
+    <workbookView windowHeight="17260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>时间</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>ASCII码表.md</t>
+  </si>
+  <si>
+    <t>proc文件系统的实现.md</t>
+  </si>
+  <si>
+    <t>FileSystem</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统.md</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统2.md</t>
+  </si>
+  <si>
+    <t>Linux0.11内核完全注释-文件系统3.md</t>
   </si>
 </sst>
 </file>
@@ -1232,12 +1247,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1493,9 +1508,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11">
+        <v>45401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11">
+        <v>45401</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11">
+        <v>45401</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>时间</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>进程运行轨迹的跟踪与统计.md</t>
+  </si>
+  <si>
+    <t>ProcessAndThread</t>
   </si>
   <si>
     <t>基于内核栈切换的进程切换.md</t>
@@ -1252,7 +1255,7 @@
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1368,26 +1371,30 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>45396</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>45397</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:3">
@@ -1395,10 +1402,10 @@
         <v>45399</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:3">
@@ -1406,10 +1413,10 @@
         <v>45399</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1417,7 +1424,7 @@
         <v>45398</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1425,10 +1432,10 @@
         <v>45399</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1436,10 +1443,10 @@
         <v>45399</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1447,10 +1454,10 @@
         <v>45399</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1458,10 +1465,10 @@
         <v>45399</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1469,10 +1476,10 @@
         <v>45399</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1480,10 +1487,10 @@
         <v>45400</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1491,10 +1498,10 @@
         <v>45400</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>34</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1502,10 +1509,10 @@
         <v>45400</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1513,10 +1520,10 @@
         <v>45401</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1524,10 +1531,10 @@
         <v>45401</v>
       </c>
       <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
         <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1535,10 +1542,10 @@
         <v>45401</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1546,10 +1553,10 @@
         <v>45401</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>时间</t>
   </si>
@@ -159,6 +159,21 @@
   </si>
   <si>
     <t>Linux0.11内核完全注释-文件系统3.md</t>
+  </si>
+  <si>
+    <t>C与汇编程序的相互调用.md</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>80X86寄存器和系统指令.md</t>
+  </si>
+  <si>
+    <t>Linux0.11目标文件格式.md</t>
+  </si>
+  <si>
+    <t>Linux内核体系结构.md</t>
   </si>
 </sst>
 </file>
@@ -798,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -826,6 +841,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,12 +1268,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1559,6 +1577,50 @@
         <v>38</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="13">
+        <v>45404</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="13">
+        <v>45404</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="13">
+        <v>45404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="13">
+        <v>45404</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>时间</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>Linux内核体系结构.md</t>
+  </si>
+  <si>
+    <t>进程调度.md</t>
+  </si>
+  <si>
+    <t>进程信号.md</t>
+  </si>
+  <si>
+    <t>进程退出.md</t>
+  </si>
+  <si>
+    <t>创建子进程.md</t>
   </si>
 </sst>
 </file>
@@ -813,7 +825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -841,9 +853,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,12 +1277,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1578,7 +1587,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="13">
+      <c r="A28" s="5">
         <v>45404</v>
       </c>
       <c r="B28" t="s">
@@ -1589,7 +1598,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="13">
+      <c r="A29" s="5">
         <v>45404</v>
       </c>
       <c r="B29" t="s">
@@ -1600,7 +1609,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="13">
+      <c r="A30" s="5">
         <v>45404</v>
       </c>
       <c r="B30" t="s">
@@ -1611,7 +1620,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="13">
+      <c r="A31" s="5">
         <v>45404</v>
       </c>
       <c r="B31" t="s">
@@ -1619,6 +1628,50 @@
       </c>
       <c r="C31" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
   <si>
     <t>时间</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>创建子进程.md</t>
+  </si>
+  <si>
+    <t>用户级线程和核心级线程.md</t>
   </si>
 </sst>
 </file>
@@ -1277,12 +1280,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1674,6 +1677,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="5">
+        <v>45405</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>时间</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>用户级线程和核心级线程.md</t>
+  </si>
+  <si>
+    <t>学习嵌入汇编.md</t>
   </si>
 </sst>
 </file>
@@ -1280,12 +1283,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1688,6 +1691,17 @@
         <v>19</v>
       </c>
     </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>时间</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>学习嵌入汇编.md</t>
+  </si>
+  <si>
+    <t>进程运行轨迹.md</t>
   </si>
 </sst>
 </file>
@@ -1283,12 +1286,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1702,6 +1705,17 @@
         <v>43</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5">
+        <v>45409</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/项目计划跟进表.xlsx
+++ b/项目计划跟进表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11980"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>时间</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>100个GDB小技巧.md</t>
+  </si>
+  <si>
+    <t>内存管理机制.md</t>
   </si>
   <si>
     <t>文件</t>
@@ -1185,10 +1188,10 @@
   <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
@@ -1230,8 +1233,12 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="5">
+        <v>45414</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6"/>
@@ -1288,8 +1295,8 @@
   <sheetPr/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -1306,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1317,10 +1324,10 @@
         <v>45399</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1328,10 +1335,10 @@
         <v>45395</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1339,10 +1346,10 @@
         <v>45399</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1350,10 +1357,10 @@
         <v>45399</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1361,10 +1368,10 @@
         <v>45395</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
@@ -1372,10 +1379,10 @@
         <v>45399</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:3">
@@ -1383,10 +1390,10 @@
         <v>45399</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:3">
@@ -1394,10 +1401,10 @@
         <v>45399</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1405,10 +1412,10 @@
         <v>45395</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1416,10 +1423,10 @@
         <v>45396</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1427,10 +1434,10 @@
         <v>45397</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:3">
@@ -1438,10 +1445,10 @@
         <v>45399</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:3">
@@ -1449,10 +1456,10 @@
         <v>45399</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1460,7 +1467,7 @@
         <v>45398</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1468,10 +1475,10 @@
         <v>45399</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1479,10 +1486,10 @@
         <v>45399</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1490,10 +1497,10 @@
         <v>45399</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1501,10 +1508,10 @@
         <v>45399</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1512,10 +1519,10 @@
         <v>45399</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1523,10 +1530,10 @@
         <v>45400</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1534,10 +1541,10 @@
         <v>45400</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
         <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1545,10 +1552,10 @@
         <v>45400</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1556,10 +1563,10 @@
         <v>45401</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1567,10 +1574,10 @@
         <v>45401</v>
       </c>
       <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
         <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1578,10 +1585,10 @@
         <v>45401</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1589,10 +1596,10 @@
         <v>45401</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1600,10 +1607,10 @@
         <v>45404</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1611,10 +1618,10 @@
         <v>45404</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1622,10 +1629,10 @@
         <v>45404</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1633,10 +1640,10 @@
         <v>45404</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1644,10 +1651,10 @@
         <v>45405</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1655,10 +1662,10 @@
         <v>45405</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1666,10 +1673,10 @@
         <v>45405</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1677,10 +1684,10 @@
         <v>45405</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1688,10 +1695,10 @@
         <v>45405</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1699,10 +1706,10 @@
         <v>45409</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1710,10 +1717,10 @@
         <v>45409</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
